--- a/LegendaryAdventure/save/savesInExel.xlsx
+++ b/LegendaryAdventure/save/savesInExel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectLegendaryAdventure\grafiki-moje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalvador\Documents\LegendaryAdventure\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="199">
   <si>
     <t>zapis</t>
   </si>
@@ -416,9 +416,6 @@
     <t>e47</t>
   </si>
   <si>
-    <t>003100</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -612,6 +609,18 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>sprite number</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>003102</t>
+  </si>
+  <si>
+    <t>003103</t>
   </si>
 </sst>
 </file>
@@ -964,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ER255"/>
+  <dimension ref="A1:ES255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:U3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +985,7 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1421,8 +1430,11 @@
       <c r="ER1">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="ES1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1430,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
         <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1487,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="V2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
@@ -1778,99 +1790,102 @@
         <v>129</v>
       </c>
       <c r="DO2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP2" t="s">
         <v>141</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DQ2" t="s">
         <v>142</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DR2" t="s">
         <v>143</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DS2" t="s">
         <v>144</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DT2" t="s">
         <v>145</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DU2" t="s">
         <v>146</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DV2" t="s">
         <v>147</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
         <v>148</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DX2" t="s">
         <v>149</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="DY2" t="s">
         <v>150</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="DZ2" t="s">
         <v>151</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>152</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
         <v>153</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EC2" t="s">
         <v>154</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ED2" t="s">
         <v>155</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EE2" t="s">
         <v>156</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>157</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
         <v>158</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EH2" t="s">
         <v>159</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EI2" t="s">
         <v>160</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EJ2" t="s">
         <v>161</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EK2" t="s">
         <v>162</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EL2" t="s">
         <v>163</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EM2" t="s">
         <v>164</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EN2" t="s">
         <v>165</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EO2" t="s">
         <v>166</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="EP2" t="s">
         <v>167</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="EQ2" t="s">
         <v>168</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ER2" t="s">
         <v>169</v>
       </c>
-      <c r="ER2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="ES2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1">
         <v>104</v>
@@ -1936,292 +1951,292 @@
         <v>3</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BS3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BT3" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="BU3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DH3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DI3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DK3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>17</v>
@@ -2251,72 +2266,75 @@
         <v>17</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EA3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EF3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EG3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EM3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EO3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="ES3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1">
         <v>105</v>
@@ -2328,16 +2346,16 @@
         <v>400</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>500</v>
@@ -2346,388 +2364,388 @@
         <v>1000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V4">
         <v>3</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BS4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BT4" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="BU4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CO4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DH4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DI4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DZ4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EA4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EB4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="ED4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EE4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EF4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EG4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EI4" s="1" t="s">
         <v>17</v>
@@ -2757,15 +2775,18 @@
         <v>17</v>
       </c>
       <c r="ER4" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="ES4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -2774,16 +2795,16 @@
         <v>400</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5">
         <v>1800</v>
@@ -2792,328 +2813,328 @@
         <v>8000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BS5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BT5" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="BU5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CY5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DD5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DH5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DI5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DK5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DL5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DM5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>17</v>
@@ -3122,25 +3143,25 @@
         <v>17</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DR5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DS5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DT5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DU5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DW5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DX5" s="1" t="s">
         <v>17</v>
@@ -3182,31 +3203,34 @@
         <v>17</v>
       </c>
       <c r="EK5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EL5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EM5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EN5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EO5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EP5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EQ5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="ER5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="ES5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3276,7 +3300,7 @@
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3346,7 +3370,7 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3416,7 +3440,7 @@
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3486,7 +3510,7 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3556,7 +3580,7 @@
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3626,7 +3650,7 @@
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3696,7 +3720,7 @@
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3766,7 +3790,7 @@
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3836,7 +3860,7 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3906,7 +3930,7 @@
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
